--- a/data/survey_data.xlsx
+++ b/data/survey_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddie/workspace/tfcb-homework01/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B9DE13B-4AE9-6B4E-965D-7B1B89A4403A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7FE48965-11AD-704F-811F-DACF0E5E0DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="860" windowWidth="27140" windowHeight="16740" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="880" windowWidth="28960" windowHeight="16740" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey_data" sheetId="4" r:id="rId1"/>
@@ -54,31 +54,31 @@
     <t>OX</t>
   </si>
   <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Calibrated</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
-    <t>Plot #</t>
-  </si>
-  <si>
     <t>DO</t>
   </si>
   <si>
-    <t>Weight (g)</t>
-  </si>
-  <si>
     <t>OL</t>
   </si>
   <si>
-    <t xml:space="preserve">Date </t>
+    <t xml:space="preserve">date </t>
+  </si>
+  <si>
+    <t>plot #</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>weight_g</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>calibrated</t>
   </si>
 </sst>
 </file>
@@ -590,29 +590,29 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -626,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="b">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1" t="b">
         <v>1</v>
@@ -849,7 +849,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1" t="b">
         <v>1</v>
@@ -869,7 +869,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1" t="b">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1" t="b">
         <v>1</v>
@@ -1143,10 +1143,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>6</v>
@@ -1263,10 +1263,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>7</v>
@@ -1366,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F40" s="1" t="b">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>2</v>
@@ -1549,7 +1549,7 @@
         <v>52</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F48" s="1" t="b">
         <v>1</v>
@@ -1569,7 +1569,7 @@
         <v>35</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F49" s="1" t="b">
         <v>1</v>
